--- a/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22444,7 +22445,6 @@
           <t>华夏兴华混合H</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
           <t>89.82</t>
@@ -22476,7 +22476,6 @@
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
           <t>56.82</t>
@@ -22508,7 +22507,6 @@
           <t>人保量化基本面混合C</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
           <t>85.21</t>
@@ -22540,7 +22538,6 @@
           <t>银华稳利灵活配置混合C</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
           <t>21.05</t>
@@ -22572,7 +22569,6 @@
           <t>广发鑫源灵活配置混合C</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
           <t>70.32</t>
@@ -22604,7 +22600,6 @@
           <t>华夏新锦绣灵活配置混合C</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
           <t>71.87</t>
@@ -22636,7 +22631,6 @@
           <t>长信先利半年定期开放混合C</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
           <t>29.00</t>
@@ -22652,6 +22646,4730 @@
       </c>
       <c r="H294" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6922</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1735</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0186</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8095</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5918</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4611</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003734</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008991</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003735</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008992</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27375,4 +27376,3708 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0419</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8382</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5672</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>51.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516400</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国中证ESG120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31080,4 +31081,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>96</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>293</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>290</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31089,7 +31090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31100,17 +31101,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -31120,14 +31141,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>96</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.56</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -31136,14 +31179,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>123</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.57</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -31152,14 +31217,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>293</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100.77</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -31168,13 +31255,2013 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7454</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000708</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>290</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>92.09999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33160,7 +33161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33171,17 +33172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33191,14 +33212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.06</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -33207,14 +33250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.56</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -33223,14 +33288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>123</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.57</v>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -33239,14 +33326,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>293</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100.77</v>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -33255,13 +33364,1687 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9568</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>123</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>293</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>290</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>92.09999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34927,7 +34928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34938,17 +34939,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -34958,14 +34979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.58</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -34974,14 +35017,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.06</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -34990,14 +35055,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>96</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.56</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -35006,14 +35093,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>123</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.57</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0719</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -35022,14 +35131,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>293</v>
-      </c>
-      <c r="D6" t="n">
-        <v>100.77</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -35038,13 +35169,2083 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7737</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5577</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4043</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG 120策略交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>290</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>92.09999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
+++ b/数据整理/stocks/A股/上证主板/601601-中国太保.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>36.28</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>25.58</v>
+        <v>36.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>34.06</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>39.56</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n">
-        <v>40.57</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="D7" t="n">
-        <v>100.77</v>
+        <v>40.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>293</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>290</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>92.09999999999999</v>
       </c>
     </row>
@@ -600,6 +617,2220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6813</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5793</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000414</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016690</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG120策略ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012854</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>英大中证ESG120策略指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>山西证券裕桓一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014216</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012855</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>英大中证ESG120策略指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2783,7 +5014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4549,7 +6780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6619,7 +8850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10323,7 +12554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15047,7 +17278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26188,7 +28419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
